--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/shariq_raees_habib_edu_pk/Documents/Documents/GitHub/PROG5001A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84597D30-4643-44CE-A670-C3BC74FEF59D}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8718E85-53EB-464C-BDBF-AB4EC0ECB47A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Week 9</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>to close the game when finised</t>
+  </si>
+  <si>
+    <t>class converted to abstract due to some new abstract methods.</t>
   </si>
 </sst>
 </file>
@@ -658,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,10 +878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,11 +1093,10 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
+      <c r="C14" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="E14" s="2"/>
       <c r="G14" s="34"/>
@@ -1105,10 +1107,11 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="G15" s="34"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1118,8 +1121,9 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="6"/>
@@ -1130,21 +1134,20 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="6"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="34"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>3.2</v>
-      </c>
+      <c r="A18" s="12"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1152,12 +1155,12 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
+      <c r="A19" s="11">
+        <v>3.2</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="D19" s="5" t="s">
-        <v>25</v>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -1166,10 +1169,13 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1178,7 +1184,14 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -1188,31 +1201,35 @@
       <c r="A23" s="12"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>4</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E26" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F26" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>5</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E28" s="8">
         <v>4</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F28" s="14">
         <v>0</v>
       </c>
     </row>

--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/shariq_raees_habib_edu_pk/Documents/Documents/GitHub/PROG5001A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8718E85-53EB-464C-BDBF-AB4EC0ECB47A}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0CF44061-C367-4BAA-AD80-7708EA260F70}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Week 9</t>
   </si>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>class converted to abstract due to some new abstract methods.</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t>GUI for Snake</t>
+  </si>
+  <si>
+    <t>GUI for Smiley</t>
   </si>
 </sst>
 </file>
@@ -263,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,6 +356,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,6 +1088,9 @@
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="F12" s="37">
+        <v>0.8</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1087,44 +1105,55 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="C14" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="G14" s="34"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="G16" s="34"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1133,11 +1162,11 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="6"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="G17" s="34"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1147,35 +1176,33 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
-      <c r="D18" s="2"/>
-      <c r="G18" s="6"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="34"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>3.2</v>
-      </c>
+      <c r="A19" s="12"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="34"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>31</v>
-      </c>
+      <c r="A20" s="12"/>
       <c r="B20" s="6"/>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1183,10 +1210,13 @@
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11">
+        <v>3.2</v>
+      </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1194,42 +1224,67 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="D24" s="5"/>
     </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="D25" s="5"/>
+    </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>4</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="9">
-        <v>3</v>
-      </c>
-      <c r="F26" s="14">
-        <v>0</v>
-      </c>
+      <c r="A26" s="12"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
+        <v>4</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="9">
+        <v>3</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>5</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E30" s="8">
         <v>4</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F30" s="14">
         <v>0</v>
       </c>
     </row>

--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/shariq_raees_habib_edu_pk/Documents/Documents/GitHub/PROG5001A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0CF44061-C367-4BAA-AD80-7708EA260F70}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84C4DA6B-96A4-4F07-A206-F1A00F5620C1}"/>
   <bookViews>
     <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,9 +356,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,7 +893,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,8 +1085,8 @@
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="37">
-        <v>0.8</v>
+      <c r="F12" s="14">
+        <v>0.95</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>

--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/shariq_raees_habib_edu_pk/Documents/Documents/GitHub/PROG5001A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{84C4DA6B-96A4-4F07-A206-F1A00F5620C1}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{081757D7-3585-4C28-BA5E-ED468C4BB8EF}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Week 9</t>
   </si>
@@ -188,6 +188,36 @@
   </si>
   <si>
     <t>GUI for Smiley</t>
+  </si>
+  <si>
+    <t>Prey Logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locate Apple </t>
+  </si>
+  <si>
+    <t>CheckApple</t>
+  </si>
+  <si>
+    <t>Check Collasion</t>
+  </si>
+  <si>
+    <t>key pressed events</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>3.2.3</t>
+  </si>
+  <si>
+    <t>3.2.4</t>
+  </si>
+  <si>
+    <t>3.2.5</t>
+  </si>
+  <si>
+    <t>3.2.6</t>
   </si>
 </sst>
 </file>
@@ -890,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1085,10 +1115,9 @@
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="14">
-        <v>0.95</v>
-      </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -1102,10 +1131,9 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -1119,10 +1147,9 @@
       <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -1136,32 +1163,28 @@
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="C16" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
+      <c r="C17" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="2"/>
       <c r="G17" s="34"/>
@@ -1172,11 +1195,11 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="6"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="G18" s="34"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1188,7 +1211,7 @@
       <c r="B19" s="6"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="6"/>
@@ -1199,21 +1222,20 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="34"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>3.2</v>
-      </c>
+      <c r="A21" s="12"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1221,12 +1243,12 @@
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>31</v>
+      <c r="A22" s="11">
+        <v>3.2</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -1235,53 +1257,111 @@
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="34">
+        <v>1</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="34">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>4</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E31" s="9">
         <v>3</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F31" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>5</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E33" s="8">
         <v>4</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F33" s="14">
         <v>0</v>
       </c>
     </row>

--- a/Product-backlog.xlsx
+++ b/Product-backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://habibuniversity-my.sharepoint.com/personal/shariq_raees_habib_edu_pk/Documents/Documents/GitHub/PROG5001A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{081757D7-3585-4C28-BA5E-ED468C4BB8EF}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_534B820E1C5E093D0E6E77DE570509F5B34C871A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{802E9345-CDC5-475B-A771-2B48B295CE31}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>Week 9</t>
   </si>
@@ -218,6 +218,18 @@
   </si>
   <si>
     <t>3.2.6</t>
+  </si>
+  <si>
+    <t>3.2.7</t>
+  </si>
+  <si>
+    <t>3.2.8</t>
+  </si>
+  <si>
+    <t>Change Snake direction</t>
+  </si>
+  <si>
+    <t>pause on spacebar  pressed</t>
   </si>
 </sst>
 </file>
@@ -920,10 +932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +943,7 @@
     <col min="1" max="1" width="15" style="11" customWidth="1"/>
     <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8" style="8" customWidth="1"/>
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
@@ -1115,10 +1127,10 @@
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="14">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1131,10 +1143,10 @@
       <c r="D13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="14">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -1147,10 +1159,10 @@
       <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -1163,10 +1175,10 @@
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -1200,7 +1212,9 @@
         <v>36</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="34">
+        <v>1</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -1213,7 +1227,9 @@
       <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="34">
+        <v>1</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1226,7 +1242,9 @@
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="34">
+        <v>1</v>
+      </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1265,10 +1283,9 @@
         <v>25</v>
       </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="34">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="34">
+        <v>1</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
@@ -1282,10 +1299,9 @@
         <v>54</v>
       </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="34">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="34">
+        <v>1</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
@@ -1296,7 +1312,7 @@
       <c r="D25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="34">
+      <c r="I25" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1307,7 +1323,7 @@
       <c r="D26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="34">
+      <c r="I26" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1318,7 +1334,7 @@
       <c r="D27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="34">
+      <c r="I27" s="34">
         <v>1</v>
       </c>
     </row>
@@ -1329,39 +1345,63 @@
       <c r="D28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="34">
+      <c r="I28" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>4</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="9">
-        <v>3</v>
-      </c>
-      <c r="F31" s="14">
-        <v>0</v>
-      </c>
+      <c r="A31" s="12"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="9">
+        <v>3</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
         <v>5</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E35" s="8">
         <v>4</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F35" s="14">
         <v>0</v>
       </c>
     </row>
